--- a/app/static/reports/daily_checkins.xlsx
+++ b/app/static/reports/daily_checkins.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,84 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:36:12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:41:36</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:46:31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fdssfdfds</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pink 3 </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>kfkfdsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:59:54</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pink 3 </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -498,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +619,90 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:36:12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:41:36</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07/20/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:46:31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:59:54</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10/10/25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -553,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +742,90 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Lead Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:36:12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:41:36</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:46:31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paola </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:59:54</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paola </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Instagram</t>
         </is>
       </c>
     </row>
@@ -594,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +867,90 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:36:12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fsd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:41:36</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clare </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fsd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Make up event </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:46:31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clare </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Make up event </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:59:54</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clare </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Make up event </t>
         </is>
       </c>
     </row>
@@ -635,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +990,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:36:12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:41:36</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:46:31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:59:54</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
